--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3561036.233571009</v>
+        <v>3665062.285431515</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7675807.357991126</v>
+        <v>7639647.645709573</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>91.73942650174776</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>195.7321437071104</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>115.0392879541882</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>88.8612860824545</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>279.9182547947686</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>73.2719072044609</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>99.13931750950114</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>202.9391646897973</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>327.1021903442156</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.93571561939713</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>101.7223804764553</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>194.9437214015084</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>48.13676080754342</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>124.0908577194979</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>190.7368854541452</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>155.1980648094033</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>125.8152577453148</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>130.2301075198438</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.930370072261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>75.5520862197303</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560547</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>114.0764389318051</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>171.1642910616442</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>67.96386702300542</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652576</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>52.47682210853034</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.547332689898</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.7715349547541</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>35.41770597126702</v>
+        <v>137.9792024346629</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2085.807325826218</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C2" t="n">
-        <v>1716.844808885807</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D2" t="n">
-        <v>1358.579110279056</v>
+        <v>920.7766538636572</v>
       </c>
       <c r="E2" t="n">
-        <v>972.790857680812</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>561.8049528912045</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2862.546497866152</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>2472.40716589034</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>923.9108438165264</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1721.262789882194</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1499.49617445172</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.769057827257</v>
+        <v>1210.393307577364</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.769057827257</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.351887790296</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="X4" t="n">
-        <v>1326.351887790296</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y4" t="n">
-        <v>1105.559308646766</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1495.089731832625</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C5" t="n">
-        <v>1126.127214892214</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D5" t="n">
-        <v>767.8615162854633</v>
+        <v>1081.572080845303</v>
       </c>
       <c r="E5" t="n">
-        <v>382.0732636872191</v>
+        <v>695.7838282470586</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>688.8383274978552</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3251.593794129917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2998.063317403753</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2998.063317403753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2645.294662133639</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X5" t="n">
-        <v>2271.828903872559</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.689571896747</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995014</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C7" t="n">
-        <v>463.6594280995014</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D7" t="n">
-        <v>313.5427886871656</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>675.2351809199101</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3268.094997751193</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3062.117250135415</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3062.117250135415</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.054362791845</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2378.28570752173</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.3907139632884</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>561.3907139632884</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>561.3907139632884</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>413.4776203808952</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>266.5876728829849</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.821308835076</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X10" t="n">
-        <v>963.8317579370582</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y10" t="n">
-        <v>743.0391787935281</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5032,10 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5044,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192855</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311174</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2071.718244760802</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1782.643018105</v>
       </c>
       <c r="V16" t="n">
-        <v>1495.722333193953</v>
+        <v>1527.958529899113</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.305163156993</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1010.551808964135</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>789.7592298206044</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5503,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5841,16 +5843,16 @@
         <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2311.700279152293</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925216</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2065.51698233621</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1776.441755680408</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1521.757267474521</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1232.340097437561</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1004.350546539543</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>783.5579673960132</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6211,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>2878.204656667458</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>2728.088017255123</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>2728.088017255123</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>2581.198069757213</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2414.001970472093</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>2414.001970472093</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>984.9192356072721</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>815.9830526793652</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>665.8664132670294</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>517.9533196846363</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,25 +6955,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>228.9331431646413</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2411.187623003223</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="T46" t="n">
-        <v>2191.586158026164</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>177.5728945814937</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>93.31459260779033</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>61.40075786968279</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>39.70888054695402</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>87.17534280744451</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>5.71375009883522</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.34460909112619</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>47.42036229045056</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>99.28295407562241</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>114.7699989900975</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>24.63391537253412</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>145.6085800303776</v>
+        <v>43.04708356698171</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710693</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710697</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055062</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.020717768181228e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818175</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92183.89891818169</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.8989181817</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818176</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818175</v>
-      </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26439,22 +26441,22 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>20987.72340992391</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992391</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992391</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992391</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.7234099239</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748872.9038360983</v>
+        <v>-748872.9038360988</v>
       </c>
       <c r="C6" t="n">
+        <v>579871.8418914943</v>
+      </c>
+      <c r="D6" t="n">
         <v>579871.8418914941</v>
       </c>
-      <c r="D6" t="n">
-        <v>579871.841891494</v>
-      </c>
       <c r="E6" t="n">
-        <v>327257.4139274131</v>
+        <v>327257.4139274129</v>
       </c>
       <c r="F6" t="n">
+        <v>652669.8757347681</v>
+      </c>
+      <c r="G6" t="n">
+        <v>652669.8757347676</v>
+      </c>
+      <c r="H6" t="n">
+        <v>652669.8757347686</v>
+      </c>
+      <c r="I6" t="n">
+        <v>652669.8757347686</v>
+      </c>
+      <c r="J6" t="n">
+        <v>435138.6733374907</v>
+      </c>
+      <c r="K6" t="n">
+        <v>652669.8757347681</v>
+      </c>
+      <c r="L6" t="n">
         <v>652669.8757347683</v>
       </c>
-      <c r="G6" t="n">
-        <v>652669.8757347682</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="M6" t="n">
+        <v>567614.8477992567</v>
+      </c>
+      <c r="N6" t="n">
+        <v>652669.8757347681</v>
+      </c>
+      <c r="O6" t="n">
+        <v>652669.8757347681</v>
+      </c>
+      <c r="P6" t="n">
         <v>652669.8757347685</v>
-      </c>
-      <c r="I6" t="n">
-        <v>652669.8757347685</v>
-      </c>
-      <c r="J6" t="n">
-        <v>435138.6733374908</v>
-      </c>
-      <c r="K6" t="n">
-        <v>636410.1241135984</v>
-      </c>
-      <c r="L6" t="n">
-        <v>655837.8421072301</v>
-      </c>
-      <c r="M6" t="n">
-        <v>570782.8141717185</v>
-      </c>
-      <c r="N6" t="n">
-        <v>655837.8421072299</v>
-      </c>
-      <c r="O6" t="n">
-        <v>655837.8421072301</v>
-      </c>
-      <c r="P6" t="n">
-        <v>652669.8757347687</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>290.190943570514</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>215.189581946343</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>74.72973737725367</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.3505521231584</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>131.0034708586848</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>130.6460629351593</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>47.29464513706803</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>15.64548866229751</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>55.63165131926496</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.2520461687787</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>64.30342778257288</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>91.26811680410452</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>351.6082511035029</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067258</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>453.7122424932259</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>695.2222086167877</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>346.7710205055862</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>489.289183278307</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>288.8958573929167</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>307.465452939363</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>309.7666854143577</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206127</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,31 +33745,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>261.5336801130326</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503479</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>217.6338436891727</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319862</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>322.3705304098925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334544</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>357.9474711949737</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>157.5541453095834</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>171.2123056344834</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>134.6960534463659</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3665062.285431515</v>
+        <v>3661049.675417524</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7639647.645709573</v>
+        <v>7639647.645709572</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.73942650174776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -718,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>20.47554896769223</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>115.0392879541882</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>279.9182547947686</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>36.34690181272234</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>54.26003672910186</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.9391646897973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>327.1021903442156</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>61.03068881012081</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>54.26003672910142</v>
       </c>
       <c r="U10" t="n">
-        <v>194.9437214015084</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695602</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>70.38407275859066</v>
       </c>
       <c r="X13" t="n">
-        <v>48.13676080754342</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>124.0908577194979</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>155.1980648094033</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>130.2301075198438</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48.85497112745813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>75.5520862197303</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560547</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>114.0764389318051</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.1642910616442</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>67.96386702300542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>52.47682210853034</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>192.7715349547541</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>137.9792024346629</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.004869410819</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470408</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>920.7766538636572</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2735.124556099686</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474941</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4406,10 +4406,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.2677753977071</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574644</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1721.262789882194</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1499.49617445172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1210.393307577364</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V4" t="n">
-        <v>955.7088193714769</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>955.7088193714769</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>955.7088193714769</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>734.9162402279468</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1808.800296392465</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1439.837779452053</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1081.572080845303</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>695.7838282470586</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>688.8383274978552</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392465</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.2351809199101</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1872.48643018031</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621296</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.2351809199101</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>170.1561756069781</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4804,13 +4804,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533245</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557433</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.2149530574645</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1872.48643018031</v>
       </c>
       <c r="U10" t="n">
-        <v>1227.09874134186</v>
+        <v>1872.48643018031</v>
       </c>
       <c r="V10" t="n">
-        <v>972.4142531359726</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="W10" t="n">
-        <v>682.9970830990119</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X10" t="n">
-        <v>455.0075322009945</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y10" t="n">
-        <v>234.2149530574645</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="11">
@@ -5023,55 +5023,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397181</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.661204897168</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.8686257536381</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192855</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311174</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5308,16 +5308,16 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206044</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926976</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803618</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979687</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2071.718244760802</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1782.643018105</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1527.958529899113</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1238.541359862152</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1010.551808964135</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.7592298206044</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,22 +5530,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5764,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2311.700279152293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.51698233621</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1776.441755680408</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1521.757267474521</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1232.340097437561</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1004.350546539543</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>783.5579673960132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
@@ -6004,13 +6004,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421613</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3047.140839595365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2878.204656667458</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.088017255123</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.088017255123</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2581.198069757213</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2414.001970472093</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2414.001970472093</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467152</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.581883569135</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.789304425605</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>984.9192356072721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>815.9830526793652</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>665.8664132670294</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>517.9533196846363</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072721</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,22 +6955,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138415</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171305</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588918</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473703</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>228.9331431646413</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>562.8579153358619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2002.343823311048</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.268596655246</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1458.584108449359</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.166938412398</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>941.1773875143809</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.3848083708508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2307.590151828076</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2307.590151828076</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2018.514925172274</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>216.1389255780003</v>
       </c>
       <c r="X13" t="n">
-        <v>177.5728945814937</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>93.31459260779033</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12.04875628922451</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>87.17534280744451</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5.71375009883522</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>31.34460909112619</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.42036229045056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.28295407562241</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>114.7699989900975</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.63391537253412</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>43.04708356698171</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26368,28 +26368,28 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.020717768181228e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818163</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683041</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26444,7 +26444,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683036</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748872.9038360988</v>
+        <v>-748872.9038360983</v>
       </c>
       <c r="C6" t="n">
         <v>579871.8418914943</v>
@@ -26530,40 +26530,40 @@
         <v>579871.8418914941</v>
       </c>
       <c r="E6" t="n">
-        <v>327257.4139274129</v>
+        <v>326910.0346730557</v>
       </c>
       <c r="F6" t="n">
-        <v>652669.8757347681</v>
+        <v>652322.4964804114</v>
       </c>
       <c r="G6" t="n">
-        <v>652669.8757347676</v>
+        <v>652322.4964804116</v>
       </c>
       <c r="H6" t="n">
-        <v>652669.8757347686</v>
+        <v>652322.4964804114</v>
       </c>
       <c r="I6" t="n">
-        <v>652669.8757347686</v>
+        <v>652322.4964804114</v>
       </c>
       <c r="J6" t="n">
-        <v>435138.6733374907</v>
+        <v>434791.2940831341</v>
       </c>
       <c r="K6" t="n">
-        <v>652669.8757347681</v>
+        <v>652322.4964804114</v>
       </c>
       <c r="L6" t="n">
-        <v>652669.8757347683</v>
+        <v>652322.4964804114</v>
       </c>
       <c r="M6" t="n">
-        <v>567614.8477992567</v>
+        <v>567267.4685448995</v>
       </c>
       <c r="N6" t="n">
-        <v>652669.8757347681</v>
+        <v>652322.4964804113</v>
       </c>
       <c r="O6" t="n">
-        <v>652669.8757347681</v>
+        <v>652322.4964804116</v>
       </c>
       <c r="P6" t="n">
-        <v>652669.8757347685</v>
+        <v>652322.4964804115</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,25 +26962,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>290.190943570514</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>74.72973737725367</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0034708586848</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>349.8910368433312</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>231.951801476511</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.64548866229751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.63165131926496</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>349.8910368433326</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>165.2889125470678</v>
       </c>
       <c r="U10" t="n">
-        <v>91.26811680410452</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-4.340940782190877e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>351.6082511035029</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067258</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>453.7122424932259</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>695.2222086167877</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>346.7710205055862</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>288.8958573929167</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>307.465452939363</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>152.5685698206127</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>261.5336801130326</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>338.6542681503479</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>217.6338436891727</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236319862</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>322.3705304098925</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>563.8804965334544</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>206.7892464195647</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>157.5541453095834</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>439.1903400640639</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>25.73094315394598</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>134.6960534463659</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>196.0580237059035</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3661049.675417524</v>
+        <v>3662810.205720309</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7639647.645709572</v>
+        <v>7639647.645709573</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20.47554896769245</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>20.47554896769223</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.34690181272234</v>
+        <v>36.34690181272053</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.26003672910186</v>
+        <v>54.26003672910142</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695602</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>36.85665993309993</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>70.38407275859066</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7215037338438</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2735.124556099686</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.355900829572</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4564,52 +4564,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
         <v>1661.795585684488</v>
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4716,28 +4716,28 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4804,13 +4804,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,22 +5050,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,40 +6147,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
         <v>1491.508541327549</v>
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6232,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,19 +6253,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.774446768174</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2018.172981791115</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6454,22 +6454,22 @@
         <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,10 +6478,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6837,19 +6837,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1569.732795130727</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.315625093766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7593,10 +7593,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
         <v>2035.268256189238</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>180.5487903941883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>216.1389255780003</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>40.30478226780076</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="12">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
@@ -26340,10 +26340,10 @@
         <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
@@ -26352,10 +26352,10 @@
         <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818163</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26441,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="K4" t="n">
         <v>12996.8641468305</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748872.9038360983</v>
+        <v>-748872.9038360986</v>
       </c>
       <c r="C6" t="n">
-        <v>579871.8418914943</v>
+        <v>579871.841891494</v>
       </c>
       <c r="D6" t="n">
-        <v>579871.8418914941</v>
+        <v>579871.8418914939</v>
       </c>
       <c r="E6" t="n">
-        <v>326910.0346730557</v>
+        <v>327222.6760019775</v>
       </c>
       <c r="F6" t="n">
-        <v>652322.4964804114</v>
+        <v>652635.1378093326</v>
       </c>
       <c r="G6" t="n">
-        <v>652322.4964804116</v>
+        <v>652635.1378093325</v>
       </c>
       <c r="H6" t="n">
-        <v>652322.4964804114</v>
+        <v>652635.1378093326</v>
       </c>
       <c r="I6" t="n">
-        <v>652322.4964804114</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="J6" t="n">
-        <v>434791.2940831341</v>
+        <v>435103.9354120552</v>
       </c>
       <c r="K6" t="n">
-        <v>652322.4964804114</v>
+        <v>652635.1378093326</v>
       </c>
       <c r="L6" t="n">
-        <v>652322.4964804114</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="M6" t="n">
-        <v>567267.4685448995</v>
+        <v>567580.1098738209</v>
       </c>
       <c r="N6" t="n">
-        <v>652322.4964804113</v>
+        <v>652635.1378093326</v>
       </c>
       <c r="O6" t="n">
-        <v>652322.4964804116</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="P6" t="n">
-        <v>652322.4964804115</v>
+        <v>652635.1378093326</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>334.2074926529905</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>307.2767095024427</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.8910368433312</v>
+        <v>349.891036843333</v>
       </c>
     </row>
     <row r="6">
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>231.951801476511</v>
+        <v>231.9518014765115</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.340940782190877e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29526,10 +29526,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
